--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3682392.354778123</v>
+        <v>3679976.859385006</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>204.0774307342255</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>211.9164927266841</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>184.2427952397867</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1616,10 +1616,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>13.91332762480654</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.63424829224823e-13</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5070022057399</v>
+        <v>314.50700220574</v>
       </c>
       <c r="C17" t="n">
-        <v>297.046052313267</v>
+        <v>234.4418191491176</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4562021629423</v>
+        <v>286.4562021629424</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7035306145211</v>
+        <v>313.7035306145212</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6492062839708</v>
+        <v>338.6492062839709</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6948861957128</v>
+        <v>342.6948861957129</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3809249295798</v>
+        <v>226.3809249295799</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.9609223304353</v>
       </c>
       <c r="T17" t="n">
-        <v>114.0478198481653</v>
+        <v>135.6911306818796</v>
       </c>
       <c r="U17" t="n">
         <v>182.7683325011614</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5254190123943</v>
+        <v>259.5254190123944</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0141292596724</v>
+        <v>281.0141292596725</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5042612207284</v>
+        <v>301.5042612207285</v>
       </c>
       <c r="Y17" t="n">
         <v>318.011099198313</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6051407241967</v>
+        <v>111.6051407241968</v>
       </c>
       <c r="C19" t="n">
-        <v>99.01998164088721</v>
+        <v>99.01998164088729</v>
       </c>
       <c r="D19" t="n">
-        <v>80.38863356047173</v>
+        <v>80.38863356047182</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20712318882855</v>
+        <v>78.20712318882863</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19420856519062</v>
+        <v>77.19420856519071</v>
       </c>
       <c r="G19" t="n">
-        <v>97.7989688012876</v>
+        <v>97.79896880128769</v>
       </c>
       <c r="H19" t="n">
-        <v>76.52817545658016</v>
+        <v>76.52817545658024</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12558095209747</v>
+        <v>28.12558095209756</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70531321230671</v>
+        <v>20.70531321230679</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5421858737013</v>
+        <v>121.5421858737014</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3221098184286</v>
+        <v>151.3221098184287</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9849987478722</v>
+        <v>217.9849987478723</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9108038660874</v>
+        <v>183.9108038660875</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2961588788504</v>
+        <v>218.2961588788505</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4828159312965</v>
+        <v>157.4828159312966</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3578138943542</v>
+        <v>150.3578138943543</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5070022057399</v>
+        <v>314.50700220574</v>
       </c>
       <c r="C20" t="n">
         <v>297.046052313267</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4562021629423</v>
+        <v>286.4562021629424</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7035306145211</v>
+        <v>251.0992974503713</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6492062839708</v>
+        <v>338.6492062839709</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6948861957128</v>
+        <v>342.6948861957129</v>
       </c>
       <c r="H20" t="n">
-        <v>163.77669176543</v>
+        <v>226.3809249295799</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96092233043521</v>
+        <v>40.9609223304353</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6911306818795</v>
+        <v>135.6911306818796</v>
       </c>
       <c r="U20" t="n">
         <v>182.7683325011614</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5254190123943</v>
+        <v>259.5254190123944</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0141292596724</v>
+        <v>281.0141292596725</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5042612207284</v>
+        <v>301.5042612207285</v>
       </c>
       <c r="Y20" t="n">
         <v>318.011099198313</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6051407241967</v>
+        <v>111.6051407241968</v>
       </c>
       <c r="C22" t="n">
-        <v>99.01998164088721</v>
+        <v>99.01998164088729</v>
       </c>
       <c r="D22" t="n">
-        <v>80.38863356047173</v>
+        <v>80.38863356047182</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20712318882855</v>
+        <v>78.20712318882863</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19420856519062</v>
+        <v>77.19420856519071</v>
       </c>
       <c r="G22" t="n">
-        <v>97.7989688012876</v>
+        <v>97.79896880128769</v>
       </c>
       <c r="H22" t="n">
-        <v>76.52817545658016</v>
+        <v>76.52817545658024</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12558095209747</v>
+        <v>28.12558095209756</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70531321230671</v>
+        <v>20.70531321230679</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5421858737013</v>
+        <v>121.5421858737014</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3221098184286</v>
+        <v>151.3221098184287</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9849987478722</v>
+        <v>217.9849987478723</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9108038660874</v>
+        <v>183.9108038660875</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2961588788504</v>
+        <v>218.2961588788505</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4828159312965</v>
+        <v>157.4828159312966</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3578138943542</v>
+        <v>150.3578138943543</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5070022057399</v>
+        <v>314.50700220574</v>
       </c>
       <c r="C23" t="n">
         <v>297.046052313267</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4562021629423</v>
+        <v>286.4562021629424</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7035306145211</v>
+        <v>313.7035306145212</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6492062839708</v>
+        <v>338.6492062839709</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6948861957128</v>
+        <v>342.6948861957129</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3809249295798</v>
+        <v>226.3809249295799</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96092233043521</v>
+        <v>40.9609223304353</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6911306818795</v>
+        <v>135.6911306818796</v>
       </c>
       <c r="U23" t="n">
         <v>182.7683325011614</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5254190123943</v>
+        <v>259.5254190123944</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0141292596724</v>
+        <v>281.0141292596725</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5042612207284</v>
+        <v>301.5042612207285</v>
       </c>
       <c r="Y23" t="n">
         <v>318.011099198313</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6051407241967</v>
+        <v>111.6051407241968</v>
       </c>
       <c r="C25" t="n">
-        <v>99.01998164088721</v>
+        <v>99.01998164088729</v>
       </c>
       <c r="D25" t="n">
-        <v>80.38863356047173</v>
+        <v>80.38863356047182</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20712318882855</v>
+        <v>78.20712318882863</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19420856519062</v>
+        <v>77.19420856519071</v>
       </c>
       <c r="G25" t="n">
-        <v>97.7989688012876</v>
+        <v>97.79896880128769</v>
       </c>
       <c r="H25" t="n">
-        <v>76.52817545658016</v>
+        <v>76.52817545658024</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12558095209747</v>
+        <v>28.12558095209756</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70531321230671</v>
+        <v>20.70531321230679</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5421858737013</v>
+        <v>121.5421858737014</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3221098184286</v>
+        <v>151.3221098184287</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9849987478722</v>
+        <v>217.9849987478723</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9108038660874</v>
+        <v>183.9108038660875</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2961588788504</v>
+        <v>218.2961588788505</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4828159312965</v>
+        <v>157.4828159312966</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3578138943542</v>
+        <v>150.3578138943543</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3266,7 +3266,7 @@
         <v>310.0352712654435</v>
       </c>
       <c r="C35" t="n">
-        <v>292.5743213729705</v>
+        <v>292.5743213729704</v>
       </c>
       <c r="D35" t="n">
         <v>281.9844712226459</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.48919139013879</v>
+        <v>36.4891913901387</v>
       </c>
       <c r="T35" t="n">
-        <v>131.2193997415831</v>
+        <v>131.219399741583</v>
       </c>
       <c r="U35" t="n">
         <v>178.2966015608649</v>
       </c>
       <c r="V35" t="n">
-        <v>255.0536880720979</v>
+        <v>255.0536880720978</v>
       </c>
       <c r="W35" t="n">
         <v>276.5423983193759</v>
@@ -3332,7 +3332,7 @@
         <v>297.032530280432</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.5393682580166</v>
+        <v>313.5393682580165</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3424,25 +3424,25 @@
         <v>107.1334097839002</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54825070059078</v>
+        <v>94.54825070059073</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91690262017531</v>
+        <v>75.91690262017525</v>
       </c>
       <c r="E37" t="n">
-        <v>73.73539224853212</v>
+        <v>73.73539224853207</v>
       </c>
       <c r="F37" t="n">
-        <v>72.7224776248942</v>
+        <v>72.72247762489414</v>
       </c>
       <c r="G37" t="n">
-        <v>93.32723786099118</v>
+        <v>93.32723786099112</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05644451628373</v>
+        <v>72.05644451628368</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65385001180105</v>
+        <v>23.65385001180098</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23358227201028</v>
+        <v>16.23358227201021</v>
       </c>
       <c r="S37" t="n">
         <v>117.0704549334048</v>
@@ -3478,19 +3478,19 @@
         <v>146.8503788781321</v>
       </c>
       <c r="U37" t="n">
-        <v>213.5132678075758</v>
+        <v>213.5132678075757</v>
       </c>
       <c r="V37" t="n">
-        <v>222.6913621978426</v>
+        <v>179.4390729257909</v>
       </c>
       <c r="W37" t="n">
-        <v>213.824427938554</v>
+        <v>213.8244279385539</v>
       </c>
       <c r="X37" t="n">
-        <v>153.0110849910001</v>
+        <v>153.011084991</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8860829540577</v>
+        <v>189.138372226111</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>310.0352712654435</v>
       </c>
       <c r="C38" t="n">
-        <v>292.5743213729705</v>
+        <v>292.5743213729704</v>
       </c>
       <c r="D38" t="n">
         <v>281.9844712226459</v>
@@ -3518,7 +3518,7 @@
         <v>338.2231552554164</v>
       </c>
       <c r="H38" t="n">
-        <v>221.9091939892834</v>
+        <v>221.9091939892851</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48919139013879</v>
+        <v>36.48919139013873</v>
       </c>
       <c r="T38" t="n">
-        <v>131.2193997415825</v>
+        <v>131.2193997415831</v>
       </c>
       <c r="U38" t="n">
         <v>178.2966015608649</v>
       </c>
       <c r="V38" t="n">
-        <v>255.0536880720979</v>
+        <v>255.0536880720978</v>
       </c>
       <c r="W38" t="n">
         <v>276.5423983193759</v>
@@ -3569,7 +3569,7 @@
         <v>297.032530280432</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.5393682580166</v>
+        <v>313.5393682580165</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>107.1334097839002</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54825070059078</v>
+        <v>94.54825070059073</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91690262017531</v>
+        <v>75.91690262017525</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73539224853212</v>
+        <v>73.73539224853207</v>
       </c>
       <c r="F40" t="n">
-        <v>72.7224776248942</v>
+        <v>72.72247762489414</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32723786099118</v>
+        <v>93.32723786099112</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05644451628373</v>
+        <v>72.05644451628368</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65385001180105</v>
+        <v>23.65385001180099</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23358227201028</v>
+        <v>16.23358227201022</v>
       </c>
       <c r="S40" t="n">
         <v>117.0704549334048</v>
@@ -3715,16 +3715,16 @@
         <v>146.8503788781321</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5132678075758</v>
+        <v>213.5132678075757</v>
       </c>
       <c r="V40" t="n">
-        <v>222.6913621978426</v>
+        <v>222.6913621978439</v>
       </c>
       <c r="W40" t="n">
-        <v>213.824427938554</v>
+        <v>213.8244279385539</v>
       </c>
       <c r="X40" t="n">
-        <v>153.0110849910001</v>
+        <v>153.011084991</v>
       </c>
       <c r="Y40" t="n">
         <v>145.8860829540577</v>
@@ -3746,16 +3746,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>232.5545998123424</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>241.6510731180179</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3983,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>232.5545998123426</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>316.7744094091665</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1522.736669656749</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C11" t="n">
-        <v>1201.223785664411</v>
+        <v>1322.544334499612</v>
       </c>
       <c r="D11" t="n">
-        <v>890.4077200057334</v>
+        <v>1011.728268840935</v>
       </c>
       <c r="E11" t="n">
-        <v>890.4077200057334</v>
+        <v>1011.728268840935</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>648.191996999401</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>280.5691797924704</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
@@ -5048,43 +5048,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.524977831081</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.911723435584</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2530.592701113543</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2204.576575800536</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.886876772798</v>
+        <v>1983.207425607999</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5179,31 +5179,31 @@
         <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5221,10 +5221,10 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718749</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>669.0385698131977</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>330.6999501630263</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>330.6999501630263</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831081</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435584</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2530.592701113543</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.576575800536</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2204.576575800536</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657644</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.140134131526</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.632702332809</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1896.885553251821</v>
+        <v>1833.648954096116</v>
       </c>
       <c r="C17" t="n">
-        <v>1596.839035763673</v>
+        <v>1596.839035763674</v>
       </c>
       <c r="D17" t="n">
         <v>1307.489336609186</v>
       </c>
       <c r="E17" t="n">
-        <v>990.6170834632049</v>
+        <v>990.6170834632053</v>
       </c>
       <c r="F17" t="n">
-        <v>648.5471781258607</v>
+        <v>648.5471781258609</v>
       </c>
       <c r="G17" t="n">
-        <v>302.3907274231206</v>
+        <v>302.3907274231207</v>
       </c>
       <c r="H17" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="I17" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J17" t="n">
-        <v>430.0079064635295</v>
+        <v>262.6022574431765</v>
       </c>
       <c r="K17" t="n">
-        <v>763.827280153376</v>
+        <v>596.4216311330231</v>
       </c>
       <c r="L17" t="n">
-        <v>1214.861493401785</v>
+        <v>1047.455844381432</v>
       </c>
       <c r="M17" t="n">
-        <v>1748.393398073709</v>
+        <v>1580.987749053356</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.172215132492</v>
+        <v>2127.766566112139</v>
       </c>
       <c r="O17" t="n">
-        <v>2798.144686011829</v>
+        <v>2630.739036991476</v>
       </c>
       <c r="P17" t="n">
-        <v>3192.919052369007</v>
+        <v>3103.601799467512</v>
       </c>
       <c r="Q17" t="n">
-        <v>3562.080001976498</v>
+        <v>3562.0800019765</v>
       </c>
       <c r="R17" t="n">
-        <v>3686.156324207554</v>
+        <v>3686.156324207555</v>
       </c>
       <c r="S17" t="n">
-        <v>3686.156324207554</v>
+        <v>3644.781655186913</v>
       </c>
       <c r="T17" t="n">
-        <v>3570.956506179104</v>
+        <v>3507.719907023398</v>
       </c>
       <c r="U17" t="n">
-        <v>3386.342028905203</v>
+        <v>3323.105429749498</v>
       </c>
       <c r="V17" t="n">
-        <v>3124.195141013896</v>
+        <v>3060.95854185819</v>
       </c>
       <c r="W17" t="n">
-        <v>2840.342485196045</v>
+        <v>2777.105886040339</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.792726387228</v>
+        <v>2472.556127231522</v>
       </c>
       <c r="Y17" t="n">
-        <v>2214.56939386368</v>
+        <v>2151.332794707974</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>183.2323124447456</v>
       </c>
       <c r="H18" t="n">
-        <v>92.73041808261311</v>
+        <v>92.73041808261314</v>
       </c>
       <c r="I18" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J18" t="n">
-        <v>167.4003959747684</v>
+        <v>167.4003959747682</v>
       </c>
       <c r="K18" t="n">
         <v>405.6645949551153</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.4126943279322</v>
+        <v>616.412694327933</v>
       </c>
       <c r="C19" t="n">
-        <v>516.3925108522885</v>
+        <v>516.3925108522892</v>
       </c>
       <c r="D19" t="n">
-        <v>435.1918708922161</v>
+        <v>435.1918708922166</v>
       </c>
       <c r="E19" t="n">
-        <v>356.1947767620863</v>
+        <v>356.1947767620867</v>
       </c>
       <c r="F19" t="n">
-        <v>278.2208287164392</v>
+        <v>278.2208287164395</v>
       </c>
       <c r="G19" t="n">
-        <v>179.4339915434214</v>
+        <v>179.4339915434216</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1328042135425</v>
+        <v>102.1328042135426</v>
       </c>
       <c r="I19" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J19" t="n">
-        <v>118.8457589310866</v>
+        <v>118.8457589310867</v>
       </c>
       <c r="K19" t="n">
-        <v>322.832941879963</v>
+        <v>322.8329418799631</v>
       </c>
       <c r="L19" t="n">
-        <v>667.9739582806722</v>
+        <v>639.3927403284592</v>
       </c>
       <c r="M19" t="n">
-        <v>1012.131003880221</v>
+        <v>983.5497859280083</v>
       </c>
       <c r="N19" t="n">
-        <v>1353.539380586086</v>
+        <v>1353.539380586087</v>
       </c>
       <c r="O19" t="n">
-        <v>1652.868979506499</v>
+        <v>1652.868979506501</v>
       </c>
       <c r="P19" t="n">
-        <v>1885.476479940159</v>
+        <v>1885.47647994016</v>
       </c>
       <c r="Q19" t="n">
-        <v>1963.086776092674</v>
+        <v>1963.086776092675</v>
       </c>
       <c r="R19" t="n">
-        <v>1942.172318302465</v>
+        <v>1942.172318302466</v>
       </c>
       <c r="S19" t="n">
-        <v>1819.402433581554</v>
+        <v>1819.402433581556</v>
       </c>
       <c r="T19" t="n">
-        <v>1666.551817603344</v>
+        <v>1666.551817603345</v>
       </c>
       <c r="U19" t="n">
-        <v>1446.36495018125</v>
+        <v>1446.364950181252</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.596461427627</v>
+        <v>1260.596461427628</v>
       </c>
       <c r="W19" t="n">
-        <v>1040.095290842929</v>
+        <v>1040.095290842931</v>
       </c>
       <c r="X19" t="n">
-        <v>881.0217393971755</v>
+        <v>881.0217393971764</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.1451597059086</v>
+        <v>729.1451597059095</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5732,70 @@
         <v>1533.602436607967</v>
       </c>
       <c r="D20" t="n">
-        <v>1244.25273745348</v>
+        <v>1244.252737453479</v>
       </c>
       <c r="E20" t="n">
-        <v>927.3804843074986</v>
+        <v>990.6170834632053</v>
       </c>
       <c r="F20" t="n">
-        <v>585.310578970154</v>
+        <v>648.5471781258609</v>
       </c>
       <c r="G20" t="n">
-        <v>239.1541282674137</v>
+        <v>302.3907274231207</v>
       </c>
       <c r="H20" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="I20" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J20" t="n">
-        <v>340.6906535620329</v>
+        <v>262.6022574431765</v>
       </c>
       <c r="K20" t="n">
-        <v>674.5100272518794</v>
+        <v>596.4216311330231</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.544240500288</v>
+        <v>1047.455844381432</v>
       </c>
       <c r="M20" t="n">
-        <v>1659.076145172213</v>
+        <v>1580.987749053356</v>
       </c>
       <c r="N20" t="n">
-        <v>2205.854962230995</v>
+        <v>2127.766566112139</v>
       </c>
       <c r="O20" t="n">
-        <v>2708.827433110332</v>
+        <v>2919.019273863639</v>
       </c>
       <c r="P20" t="n">
-        <v>3103.60179946751</v>
+        <v>3313.793640220817</v>
       </c>
       <c r="Q20" t="n">
-        <v>3562.080001976498</v>
+        <v>3562.0800019765</v>
       </c>
       <c r="R20" t="n">
-        <v>3686.156324207554</v>
+        <v>3686.156324207555</v>
       </c>
       <c r="S20" t="n">
-        <v>3644.781655186912</v>
+        <v>3644.781655186913</v>
       </c>
       <c r="T20" t="n">
-        <v>3507.719907023397</v>
+        <v>3507.719907023398</v>
       </c>
       <c r="U20" t="n">
         <v>3323.105429749497</v>
       </c>
       <c r="V20" t="n">
-        <v>3060.958541858189</v>
+        <v>3060.95854185819</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.105886040338</v>
+        <v>2777.105886040339</v>
       </c>
       <c r="X20" t="n">
         <v>2472.556127231522</v>
       </c>
       <c r="Y20" t="n">
-        <v>2151.332794707973</v>
+        <v>2151.332794707974</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>183.2323124447456</v>
       </c>
       <c r="H21" t="n">
-        <v>92.73041808261311</v>
+        <v>92.73041808261314</v>
       </c>
       <c r="I21" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J21" t="n">
-        <v>167.4003959747684</v>
+        <v>167.4003959747682</v>
       </c>
       <c r="K21" t="n">
         <v>405.6645949551153</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.4126943279322</v>
+        <v>616.412694327933</v>
       </c>
       <c r="C22" t="n">
-        <v>516.3925108522885</v>
+        <v>516.3925108522892</v>
       </c>
       <c r="D22" t="n">
-        <v>435.1918708922161</v>
+        <v>435.1918708922166</v>
       </c>
       <c r="E22" t="n">
-        <v>356.1947767620863</v>
+        <v>356.1947767620867</v>
       </c>
       <c r="F22" t="n">
-        <v>278.2208287164392</v>
+        <v>278.2208287164395</v>
       </c>
       <c r="G22" t="n">
-        <v>179.4339915434214</v>
+        <v>179.4339915434216</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1328042135425</v>
+        <v>102.1328042135426</v>
       </c>
       <c r="I22" t="n">
-        <v>73.72312648415107</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J22" t="n">
-        <v>118.8457589310866</v>
+        <v>118.8457589310867</v>
       </c>
       <c r="K22" t="n">
-        <v>322.832941879963</v>
+        <v>322.8329418799631</v>
       </c>
       <c r="L22" t="n">
-        <v>639.3927403284591</v>
+        <v>639.3927403284592</v>
       </c>
       <c r="M22" t="n">
-        <v>1012.131003880221</v>
+        <v>1012.131003880223</v>
       </c>
       <c r="N22" t="n">
-        <v>1353.539380586086</v>
+        <v>1353.539380586087</v>
       </c>
       <c r="O22" t="n">
-        <v>1652.868979506499</v>
+        <v>1652.868979506501</v>
       </c>
       <c r="P22" t="n">
-        <v>1885.476479940159</v>
+        <v>1885.47647994016</v>
       </c>
       <c r="Q22" t="n">
-        <v>1963.086776092674</v>
+        <v>1963.086776092675</v>
       </c>
       <c r="R22" t="n">
-        <v>1942.172318302465</v>
+        <v>1942.172318302466</v>
       </c>
       <c r="S22" t="n">
-        <v>1819.402433581554</v>
+        <v>1819.402433581556</v>
       </c>
       <c r="T22" t="n">
-        <v>1666.551817603344</v>
+        <v>1666.551817603345</v>
       </c>
       <c r="U22" t="n">
-        <v>1446.36495018125</v>
+        <v>1446.364950181252</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.596461427627</v>
+        <v>1260.596461427628</v>
       </c>
       <c r="W22" t="n">
-        <v>1040.095290842929</v>
+        <v>1040.095290842931</v>
       </c>
       <c r="X22" t="n">
-        <v>881.0217393971755</v>
+        <v>881.0217393971764</v>
       </c>
       <c r="Y22" t="n">
-        <v>729.1451597059086</v>
+        <v>729.1451597059095</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1898.176096091734</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.129578603585</v>
+        <v>1598.129578603586</v>
       </c>
       <c r="D23" t="n">
         <v>1308.779879449098</v>
@@ -5975,64 +5975,64 @@
         <v>991.9076263031171</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8377209657729</v>
+        <v>649.8377209657727</v>
       </c>
       <c r="G23" t="n">
-        <v>303.681270263033</v>
+        <v>303.6812702630331</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01366932406344</v>
+        <v>75.01366932406347</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01366932406344</v>
+        <v>75.01366932406347</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2984493034419</v>
+        <v>263.8928002830889</v>
       </c>
       <c r="K23" t="n">
-        <v>804.0964249217504</v>
+        <v>597.7121739729355</v>
       </c>
       <c r="L23" t="n">
-        <v>1255.130638170159</v>
+        <v>1048.746387221344</v>
       </c>
       <c r="M23" t="n">
-        <v>1788.662542842084</v>
+        <v>1582.278291893269</v>
       </c>
       <c r="N23" t="n">
-        <v>2335.441359900866</v>
+        <v>2335.441359900868</v>
       </c>
       <c r="O23" t="n">
-        <v>2838.413830780203</v>
+        <v>2838.413830780205</v>
       </c>
       <c r="P23" t="n">
-        <v>3233.188197137381</v>
+        <v>3233.188197137383</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.666399646369</v>
+        <v>3691.666399646371</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.683466203172</v>
+        <v>3750.683466203173</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.30879718253</v>
+        <v>3709.308797182532</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.247049019016</v>
+        <v>3572.247049019017</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.632571745115</v>
+        <v>3387.632571745116</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.485683853808</v>
+        <v>3125.485683853809</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.633028035957</v>
+        <v>2841.633028035958</v>
       </c>
       <c r="X23" t="n">
         <v>2537.083269227141</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.859936703592</v>
+        <v>2215.859936703593</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0454073729887</v>
+        <v>950.0454073729886</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5923780918617</v>
+        <v>775.5923780918616</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6579684306105</v>
+        <v>626.6579684306104</v>
       </c>
       <c r="E24" t="n">
         <v>467.4205134251549</v>
@@ -6063,7 +6063,7 @@
         <v>94.02096092252549</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01366932406344</v>
+        <v>75.01366932406347</v>
       </c>
       <c r="J24" t="n">
         <v>168.6909388146808</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7032371678446</v>
+        <v>617.7032371678454</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6830536922009</v>
+        <v>517.6830536922016</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4824137321285</v>
+        <v>436.482413732129</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4853196019986</v>
+        <v>357.4853196019991</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5113715563515</v>
+        <v>279.5113715563519</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7245343833338</v>
+        <v>180.724534383334</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4233470534548</v>
+        <v>103.4233470534549</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01366932406344</v>
+        <v>75.01366932406347</v>
       </c>
       <c r="J25" t="n">
         <v>120.136301770999</v>
       </c>
       <c r="K25" t="n">
-        <v>352.7047026720884</v>
+        <v>324.1234847198754</v>
       </c>
       <c r="L25" t="n">
-        <v>669.2645011205846</v>
+        <v>669.2645011205861</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.421546720134</v>
+        <v>1013.421546720135</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.829923425998</v>
+        <v>1354.829923426</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.159522346412</v>
+        <v>1654.159522346413</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.767022780071</v>
+        <v>1886.767022780073</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.377318932586</v>
+        <v>1964.377318932588</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.462861142377</v>
+        <v>1943.462861142379</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.692976421467</v>
+        <v>1820.692976421468</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.842360443256</v>
+        <v>1667.842360443257</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.655493021163</v>
+        <v>1447.655493021164</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.887004267539</v>
+        <v>1261.887004267541</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.385833682842</v>
+        <v>1041.385833682843</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3122822370879</v>
+        <v>882.3122822370888</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.435702545821</v>
+        <v>730.4357025458219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6230,46 +6230,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.404136464983</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136908</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.71485819569</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991692</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890157</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037424</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.684944709349</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768131</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6546,7 +6546,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6616,10 +6616,10 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
@@ -6704,46 +6704,46 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6844,46 +6844,46 @@
         <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.784153613663</v>
+        <v>1869.784153613661</v>
       </c>
       <c r="C35" t="n">
-        <v>1574.254536065208</v>
+        <v>1574.254536065206</v>
       </c>
       <c r="D35" t="n">
-        <v>1289.421736850414</v>
+        <v>1289.421736850412</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0663836441263</v>
+        <v>977.0663836441245</v>
       </c>
       <c r="F35" t="n">
-        <v>639.513378246475</v>
+        <v>639.5133782464738</v>
       </c>
       <c r="G35" t="n">
         <v>297.8738274834272</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6022574431765</v>
+        <v>262.6022574431767</v>
       </c>
       <c r="K35" t="n">
-        <v>596.4216311330231</v>
+        <v>596.4216311330233</v>
       </c>
       <c r="L35" t="n">
         <v>1047.455844381432</v>
       </c>
       <c r="M35" t="n">
-        <v>1580.987749053356</v>
+        <v>1580.987749053357</v>
       </c>
       <c r="N35" t="n">
         <v>2127.766566112139</v>
       </c>
       <c r="O35" t="n">
-        <v>2630.739036991476</v>
+        <v>2984.07852953789</v>
       </c>
       <c r="P35" t="n">
-        <v>3344.094124438421</v>
+        <v>3378.852895895068</v>
       </c>
       <c r="Q35" t="n">
         <v>3627.139257650751</v>
       </c>
       <c r="R35" t="n">
-        <v>3686.156324207554</v>
+        <v>3686.156324207553</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.298555126606</v>
+        <v>3649.298555126605</v>
       </c>
       <c r="T35" t="n">
         <v>3516.753706902784</v>
       </c>
       <c r="U35" t="n">
-        <v>3336.656129568577</v>
+        <v>3336.656129568576</v>
       </c>
       <c r="V35" t="n">
-        <v>3079.026141616963</v>
+        <v>3079.026141616962</v>
       </c>
       <c r="W35" t="n">
-        <v>2799.690385738806</v>
+        <v>2799.690385738804</v>
       </c>
       <c r="X35" t="n">
-        <v>2499.657526869683</v>
+        <v>2499.657526869681</v>
       </c>
       <c r="Y35" t="n">
-        <v>2182.951094285828</v>
+        <v>2182.951094285826</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>948.7548645330763</v>
+        <v>948.7548645330767</v>
       </c>
       <c r="C36" t="n">
-        <v>774.3018352519493</v>
+        <v>774.3018352519497</v>
       </c>
       <c r="D36" t="n">
-        <v>625.3674255906981</v>
+        <v>625.3674255906985</v>
       </c>
       <c r="E36" t="n">
-        <v>466.1299705852425</v>
+        <v>466.129970585243</v>
       </c>
       <c r="F36" t="n">
-        <v>319.5954126121275</v>
+        <v>319.595412612128</v>
       </c>
       <c r="G36" t="n">
-        <v>183.2323124447456</v>
+        <v>183.2323124447461</v>
       </c>
       <c r="H36" t="n">
-        <v>92.73041808261311</v>
+        <v>92.73041808261348</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="J36" t="n">
-        <v>167.4003959747684</v>
+        <v>167.4003959747682</v>
       </c>
       <c r="K36" t="n">
-        <v>405.6645949551153</v>
+        <v>405.6645949551156</v>
       </c>
       <c r="L36" t="n">
         <v>772.3627552677807</v>
@@ -7035,19 +7035,19 @@
         <v>2414.622994938709</v>
       </c>
       <c r="Q36" t="n">
-        <v>2572.264552585309</v>
+        <v>2572.26455258531</v>
       </c>
       <c r="R36" t="n">
-        <v>2572.120199177824</v>
+        <v>2572.120199177825</v>
       </c>
       <c r="S36" t="n">
-        <v>2442.682312671304</v>
+        <v>2442.682312671305</v>
       </c>
       <c r="T36" t="n">
-        <v>2250.039312349159</v>
+        <v>2250.03931234916</v>
       </c>
       <c r="U36" t="n">
-        <v>2021.971465483575</v>
+        <v>2021.971465483576</v>
       </c>
       <c r="V36" t="n">
         <v>1786.819357251833</v>
@@ -7056,10 +7056,10 @@
         <v>1532.582000523631</v>
       </c>
       <c r="X36" t="n">
-        <v>1324.730500318098</v>
+        <v>1324.730500318099</v>
       </c>
       <c r="Y36" t="n">
-        <v>1116.970201553144</v>
+        <v>1116.970201553145</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7943947500787</v>
+        <v>584.7943947500783</v>
       </c>
       <c r="C37" t="n">
-        <v>489.2911112141285</v>
+        <v>489.2911112141281</v>
       </c>
       <c r="D37" t="n">
-        <v>412.6073711937494</v>
+        <v>412.607371193749</v>
       </c>
       <c r="E37" t="n">
-        <v>338.1271770033129</v>
+        <v>338.1271770033126</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6701288973591</v>
+        <v>264.6701288973589</v>
       </c>
       <c r="G37" t="n">
-        <v>170.4001916640347</v>
+        <v>170.4001916640346</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61590427384911</v>
+        <v>97.61590427384903</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415107</v>
       </c>
       <c r="J37" t="n">
-        <v>118.8457589310866</v>
+        <v>118.8457589310867</v>
       </c>
       <c r="K37" t="n">
-        <v>322.832941879963</v>
+        <v>322.8329418799631</v>
       </c>
       <c r="L37" t="n">
-        <v>639.3927403284591</v>
+        <v>639.3927403284592</v>
       </c>
       <c r="M37" t="n">
-        <v>983.5497859280081</v>
+        <v>983.5497859280083</v>
       </c>
       <c r="N37" t="n">
         <v>1324.958162633873</v>
       </c>
       <c r="O37" t="n">
-        <v>1624.287761554286</v>
+        <v>1624.287761554287</v>
       </c>
       <c r="P37" t="n">
         <v>1856.895261987946</v>
       </c>
       <c r="Q37" t="n">
-        <v>1934.50555814046</v>
+        <v>1934.505558140461</v>
       </c>
       <c r="R37" t="n">
         <v>1918.108000289945</v>
@@ -7126,19 +7126,19 @@
         <v>1651.521299470211</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.851331987811</v>
+        <v>1435.851331987812</v>
       </c>
       <c r="V37" t="n">
-        <v>1210.910562091</v>
+        <v>1254.599743173882</v>
       </c>
       <c r="W37" t="n">
-        <v>994.926291445996</v>
+        <v>1038.615472528877</v>
       </c>
       <c r="X37" t="n">
-        <v>840.3696399399353</v>
+        <v>884.0588210228168</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.0099601883618</v>
+        <v>693.0099601883612</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.784153613663</v>
+        <v>1869.784153613664</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.254536065208</v>
+        <v>1574.254536065209</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.421736850414</v>
+        <v>1289.421736850415</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0663836441261</v>
+        <v>977.0663836441277</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5133782464751</v>
+        <v>639.5133782464768</v>
       </c>
       <c r="G38" t="n">
-        <v>297.8738274834272</v>
+        <v>297.873827483429</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J38" t="n">
-        <v>430.0079064635295</v>
+        <v>262.6022574431765</v>
       </c>
       <c r="K38" t="n">
-        <v>763.827280153376</v>
+        <v>596.4216311330231</v>
       </c>
       <c r="L38" t="n">
-        <v>1214.861493401785</v>
+        <v>1047.455844381432</v>
       </c>
       <c r="M38" t="n">
-        <v>1748.393398073709</v>
+        <v>1934.327241599773</v>
       </c>
       <c r="N38" t="n">
-        <v>2295.172215132492</v>
+        <v>2481.106058658555</v>
       </c>
       <c r="O38" t="n">
-        <v>2798.144686011829</v>
+        <v>2984.078529537892</v>
       </c>
       <c r="P38" t="n">
-        <v>3192.919052369007</v>
+        <v>3378.85289589507</v>
       </c>
       <c r="Q38" t="n">
-        <v>3562.080001976499</v>
+        <v>3627.139257650752</v>
       </c>
       <c r="R38" t="n">
-        <v>3686.156324207554</v>
+        <v>3686.156324207555</v>
       </c>
       <c r="S38" t="n">
-        <v>3649.298555126606</v>
+        <v>3649.298555126607</v>
       </c>
       <c r="T38" t="n">
         <v>3516.753706902785</v>
@@ -7211,13 +7211,13 @@
         <v>3079.026141616964</v>
       </c>
       <c r="W38" t="n">
-        <v>2799.690385738806</v>
+        <v>2799.690385738807</v>
       </c>
       <c r="X38" t="n">
-        <v>2499.657526869683</v>
+        <v>2499.657526869684</v>
       </c>
       <c r="Y38" t="n">
-        <v>2182.951094285828</v>
+        <v>2182.951094285829</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>183.2323124447456</v>
       </c>
       <c r="H39" t="n">
-        <v>92.73041808261311</v>
+        <v>92.73041808261314</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J39" t="n">
         <v>167.4003959747684</v>
       </c>
       <c r="K39" t="n">
-        <v>405.6645949551155</v>
+        <v>405.6645949551156</v>
       </c>
       <c r="L39" t="n">
-        <v>772.3627552677809</v>
+        <v>772.3627552677807</v>
       </c>
       <c r="M39" t="n">
         <v>1219.639080490097</v>
       </c>
       <c r="N39" t="n">
-        <v>1693.162124044552</v>
+        <v>1693.162124044551</v>
       </c>
       <c r="O39" t="n">
         <v>2104.123403462606</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7943947500787</v>
+        <v>584.7943947500783</v>
       </c>
       <c r="C40" t="n">
-        <v>489.2911112141285</v>
+        <v>489.2911112141281</v>
       </c>
       <c r="D40" t="n">
-        <v>412.6073711937494</v>
+        <v>412.607371193749</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1271770033129</v>
+        <v>338.1271770033126</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6701288973591</v>
+        <v>264.6701288973589</v>
       </c>
       <c r="G40" t="n">
-        <v>170.4001916640347</v>
+        <v>170.4001916640346</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61590427384911</v>
+        <v>97.61590427384907</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72312648415108</v>
+        <v>73.72312648415109</v>
       </c>
       <c r="J40" t="n">
-        <v>118.8457589310866</v>
+        <v>118.8457589310867</v>
       </c>
       <c r="K40" t="n">
-        <v>322.832941879963</v>
+        <v>322.8329418799631</v>
       </c>
       <c r="L40" t="n">
-        <v>639.3927403284591</v>
+        <v>639.3927403284592</v>
       </c>
       <c r="M40" t="n">
-        <v>983.5497859280081</v>
+        <v>983.5497859280083</v>
       </c>
       <c r="N40" t="n">
         <v>1324.958162633873</v>
@@ -7351,7 +7351,7 @@
         <v>1856.895261987946</v>
       </c>
       <c r="Q40" t="n">
-        <v>1934.50555814046</v>
+        <v>1934.505558140461</v>
       </c>
       <c r="R40" t="n">
         <v>1918.108000289945</v>
@@ -7366,16 +7366,16 @@
         <v>1435.851331987811</v>
       </c>
       <c r="V40" t="n">
-        <v>1210.910562091</v>
+        <v>1210.910562090999</v>
       </c>
       <c r="W40" t="n">
-        <v>994.926291445996</v>
+        <v>994.9262914459953</v>
       </c>
       <c r="X40" t="n">
-        <v>840.3696399399353</v>
+        <v>840.3696399399346</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0099601883618</v>
+        <v>693.0099601883612</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1768.338774781834</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C41" t="n">
-        <v>1446.825890789496</v>
+        <v>979.8546354718743</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.009825130819</v>
+        <v>669.0385698131969</v>
       </c>
       <c r="E41" t="n">
-        <v>797.6712054806479</v>
+        <v>669.0385698131969</v>
       </c>
       <c r="F41" t="n">
-        <v>434.1349336391137</v>
+        <v>669.0385698131969</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>301.4157526062667</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,52 +7409,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>3081.513828560669</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W41" t="n">
-        <v>2776.194806238628</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X41" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y41" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F43" t="n">
         <v>335.4089181770415</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H43" t="n">
         <v>116.3881606657648</v>
@@ -7570,22 +7570,22 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
         <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q43" t="n">
         <v>2299.337630107746</v>
@@ -7612,7 +7612,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718745</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>669.0385698131971</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>669.0385698131971</v>
       </c>
       <c r="F44" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>3020.286799287131</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y44" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
         <v>771.6978860337114</v>
@@ -7849,7 +7849,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>209.6550648867646</v>
+        <v>209.6550648867644</v>
       </c>
       <c r="L8" t="n">
-        <v>222.8211400338107</v>
+        <v>222.8211400338105</v>
       </c>
       <c r="M8" t="n">
-        <v>215.942120573331</v>
+        <v>215.9421205733307</v>
       </c>
       <c r="N8" t="n">
-        <v>214.7758773408723</v>
+        <v>214.775877340872</v>
       </c>
       <c r="O8" t="n">
-        <v>216.2767315021473</v>
+        <v>216.276731502147</v>
       </c>
       <c r="P8" t="n">
-        <v>219.436682415182</v>
+        <v>219.4366824151818</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.6908874527633</v>
+        <v>122.6908874527632</v>
       </c>
       <c r="K9" t="n">
-        <v>130.7540011748937</v>
+        <v>130.7540011748936</v>
       </c>
       <c r="L9" t="n">
-        <v>129.0244450143439</v>
+        <v>129.0244450143437</v>
       </c>
       <c r="M9" t="n">
-        <v>131.013049548628</v>
+        <v>131.0130495486278</v>
       </c>
       <c r="N9" t="n">
-        <v>119.9263883451012</v>
+        <v>119.926388345101</v>
       </c>
       <c r="O9" t="n">
-        <v>132.1534533884759</v>
+        <v>132.1534533884757</v>
       </c>
       <c r="P9" t="n">
-        <v>125.5931469391932</v>
+        <v>125.5931469391931</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.3791234160691</v>
+        <v>134.379123416069</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>129.4140016401667</v>
+        <v>129.4140016401666</v>
       </c>
       <c r="M10" t="n">
-        <v>133.1577245837799</v>
+        <v>133.1577245837798</v>
       </c>
       <c r="N10" t="n">
-        <v>122.0546366608332</v>
+        <v>122.0546366608331</v>
       </c>
       <c r="O10" t="n">
-        <v>133.2554837056412</v>
+        <v>133.2554837056411</v>
       </c>
       <c r="P10" t="n">
-        <v>133.2776032037999</v>
+        <v>133.2776032037998</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>78.8771677968262</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.0955432846559</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>78.87716779682461</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>291.1921584567309</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.37232518026474</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>208.4689403523397</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>402.5500016878923</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279888</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550046</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>167.7369666428366</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544135</v>
+        <v>137.5908801368519</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>356.908578329711</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.10987015823028</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>356.9085783297134</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0955432846563</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>155.8234783888934</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.71613504204382</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958313</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.5159098051013</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>350.0332614100544</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210278</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>62.60423316414938</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96092233043521</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>21.6433108337142</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>62.60423316414997</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>62.6042331641498</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.123474293440253e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.826450433232822e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>15.07802795638557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403093</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>39.12604873352443</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>127.3463093107763</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.981554650709995</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634487.1192884163</v>
+        <v>634487.1192884165</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634487.1192884163</v>
+        <v>634487.1192884165</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638224.5920083162</v>
+        <v>638224.5920083161</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>638224.5920083162</v>
+        <v>638224.5920083163</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>819276.3387170384</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819282.8684693313</v>
+        <v>819282.8684693314</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898415</v>
+        <v>764531.0098898421</v>
       </c>
       <c r="F2" t="n">
+        <v>764531.0098898414</v>
+      </c>
+      <c r="G2" t="n">
+        <v>816058.4729044166</v>
+      </c>
+      <c r="H2" t="n">
+        <v>816058.4729044164</v>
+      </c>
+      <c r="I2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="K2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="M2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="O2" t="n">
+        <v>764531.0098898414</v>
+      </c>
+      <c r="P2" t="n">
         <v>764531.0098898425</v>
-      </c>
-      <c r="G2" t="n">
-        <v>816058.4729044167</v>
-      </c>
-      <c r="H2" t="n">
-        <v>816058.4729044168</v>
-      </c>
-      <c r="I2" t="n">
-        <v>821041.7698642829</v>
-      </c>
-      <c r="J2" t="n">
-        <v>821041.7698642828</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642833</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642821</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642826</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642826</v>
-      </c>
-      <c r="O2" t="n">
-        <v>764531.0098898428</v>
-      </c>
-      <c r="P2" t="n">
-        <v>764531.0098898424</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>17475.5352498214</v>
+        <v>17475.53524982171</v>
       </c>
       <c r="E3" t="n">
-        <v>1144954.343066619</v>
+        <v>1144954.343066618</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41706.73339748789</v>
+        <v>41706.73339748805</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>4289.780531654212</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.83987220661</v>
+        <v>40637.83987220666</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17001.36227131852</v>
+        <v>17001.36227131839</v>
       </c>
       <c r="M3" t="n">
-        <v>204641.8369910518</v>
+        <v>204641.8369910517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>430564.3199707143</v>
+        <v>430564.3199707142</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.55741359853</v>
       </c>
       <c r="F4" t="n">
         <v>58215.55741359852</v>
       </c>
       <c r="G4" t="n">
-        <v>83742.74534170226</v>
+        <v>83742.74534170225</v>
       </c>
       <c r="H4" t="n">
         <v>83742.74534170225</v>
       </c>
       <c r="I4" t="n">
-        <v>85911.27524006259</v>
+        <v>85911.27524006256</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="L4" t="n">
         <v>82806.76150409842</v>
       </c>
       <c r="M4" t="n">
-        <v>86578.1379652313</v>
+        <v>86578.13796523128</v>
       </c>
       <c r="N4" t="n">
-        <v>86578.13796523129</v>
+        <v>86578.13796523136</v>
       </c>
       <c r="O4" t="n">
-        <v>58215.55741359855</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="P4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.55741359852</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34072.43937493561</v>
+        <v>34072.43937493562</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>85522.4703672615</v>
+        <v>85522.47036726153</v>
       </c>
       <c r="H5" t="n">
-        <v>85522.4703672615</v>
+        <v>85522.47036726153</v>
       </c>
       <c r="I5" t="n">
         <v>86503.28292559492</v>
@@ -26497,13 +26497,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>85898.4043156813</v>
+        <v>85898.40431568128</v>
       </c>
       <c r="N5" t="n">
-        <v>85898.4043156813</v>
+        <v>85898.40431568131</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349374.8589977903</v>
+        <v>349370.4454199221</v>
       </c>
       <c r="C6" t="n">
-        <v>349374.8589977904</v>
+        <v>349370.4454199221</v>
       </c>
       <c r="D6" t="n">
-        <v>337170.5738738601</v>
+        <v>337166.1766203725</v>
       </c>
       <c r="E6" t="n">
-        <v>-516894.3839121573</v>
+        <v>-517035.6608120923</v>
       </c>
       <c r="F6" t="n">
-        <v>628059.9591544622</v>
+        <v>627918.682254525</v>
       </c>
       <c r="G6" t="n">
-        <v>605086.5237979651</v>
+        <v>605074.0655555652</v>
       </c>
       <c r="H6" t="n">
-        <v>646793.2571954532</v>
+        <v>646780.798953053</v>
       </c>
       <c r="I6" t="n">
-        <v>644337.4311669711</v>
+        <v>644337.431166971</v>
       </c>
       <c r="J6" t="n">
         <v>608219.2268131718</v>
       </c>
       <c r="K6" t="n">
-        <v>648857.0666853788</v>
+        <v>648857.0666853786</v>
       </c>
       <c r="L6" t="n">
-        <v>631855.7044140589</v>
+        <v>631855.7044140598</v>
       </c>
       <c r="M6" t="n">
-        <v>443923.3905923181</v>
+        <v>443923.3905923187</v>
       </c>
       <c r="N6" t="n">
-        <v>648565.2275833699</v>
+        <v>648565.2275833706</v>
       </c>
       <c r="O6" t="n">
-        <v>628059.9591544626</v>
+        <v>627918.682254525</v>
       </c>
       <c r="P6" t="n">
-        <v>628059.9591544621</v>
+        <v>627918.6822545261</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>72.69857039803711</v>
+      </c>
+      <c r="N2" t="n">
+        <v>72.69857039803711</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859262</v>
-      </c>
-      <c r="M2" t="n">
-        <v>72.69857039803705</v>
-      </c>
-      <c r="N2" t="n">
-        <v>72.69857039803705</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.40547591447757</v>
+        <v>20.40547591447794</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="G4" t="n">
-        <v>921.5390810518884</v>
+        <v>921.5390810518887</v>
       </c>
       <c r="H4" t="n">
-        <v>921.5390810518884</v>
+        <v>921.5390810518887</v>
       </c>
       <c r="I4" t="n">
-        <v>937.670866550793</v>
+        <v>937.6708665507933</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5390810518885</v>
+        <v>921.5390810518883</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5390810518885</v>
+        <v>921.5390810518887</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.25170283914807</v>
+        <v>21.25170283914798</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72343377944448</v>
+        <v>25.72343377944458</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.25170283914815</v>
+        <v>21.25170283914798</v>
       </c>
       <c r="M2" t="n">
-        <v>25.72343377944443</v>
+        <v>25.72343377944455</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.40547591447757</v>
+        <v>20.40547591447794</v>
       </c>
       <c r="E3" t="n">
-        <v>1069.371224678821</v>
+        <v>1069.37122467882</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90.13762564959563</v>
+        <v>90.13762564959586</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>16.13178549890461</v>
       </c>
       <c r="J4" t="n">
-        <v>76.66559465782143</v>
+        <v>76.66559465782132</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.6040752455669</v>
+        <v>738.6040752455662</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.25170283914807</v>
+        <v>21.25170283914798</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72343377944448</v>
+        <v>25.72343377944458</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.13762564959563</v>
+        <v>90.13762564959586</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.6346912405545</v>
       </c>
       <c r="I8" t="n">
-        <v>207.3133484239018</v>
+        <v>207.3133484239017</v>
       </c>
       <c r="J8" t="n">
-        <v>4.986920464576774</v>
+        <v>4.986920464576648</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.132159165662232</v>
+        <v>1.132159165662072</v>
       </c>
       <c r="R8" t="n">
         <v>144.7161713023042</v>
@@ -27947,10 +27947,10 @@
         <v>137.2996261395455</v>
       </c>
       <c r="H9" t="n">
-        <v>111.8115493500467</v>
+        <v>111.8115493500466</v>
       </c>
       <c r="I9" t="n">
-        <v>87.88547260680518</v>
+        <v>87.88547260680515</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.43274059561158</v>
+        <v>97.43274059561153</v>
       </c>
       <c r="S9" t="n">
         <v>170.8679145897075</v>
@@ -28032,10 +28032,10 @@
         <v>154.3438960038961</v>
       </c>
       <c r="J10" t="n">
-        <v>90.75764919557618</v>
+        <v>90.75764919557614</v>
       </c>
       <c r="K10" t="n">
-        <v>17.9943773638005</v>
+        <v>17.99437736380042</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>83.08081638860827</v>
+        <v>83.08081638860821</v>
       </c>
       <c r="R10" t="n">
         <v>175.6388752481038</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>28.86991712344752</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>28.86991712344894</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>28.86991712344758</v>
+        <v>28.86991712344906</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
     </row>
     <row r="24">
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>28.86991712344752</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>28.86991712344911</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22683945774062</v>
+        <v>68.22683945774054</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="C35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="D35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="E35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="F35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="G35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="H35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="T35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="U35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="V35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="W35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="X35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="C37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="D37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="E37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="F37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="G37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="H37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="I37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="S37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="T37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="U37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="V37" t="n">
-        <v>29.44628112598542</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="W37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="X37" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.69857039803705</v>
+        <v>29.44628112598377</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="C38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="D38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="E38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="F38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="G38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="H38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="T38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="U38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="V38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="W38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="X38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="C40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="D40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="E40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="F40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="G40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="H40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="I40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="S40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="T40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="U40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="V40" t="n">
-        <v>29.44628112598542</v>
+        <v>29.44628112598406</v>
       </c>
       <c r="W40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="X40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.69857039803705</v>
+        <v>72.69857039803711</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859236</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859324</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08203206397779923</v>
+        <v>0.08203206397780072</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8401108752126366</v>
+        <v>0.8401108752126518</v>
       </c>
       <c r="I8" t="n">
-        <v>3.162541146504108</v>
+        <v>3.162541146504165</v>
       </c>
       <c r="J8" t="n">
-        <v>6.962368890035743</v>
+        <v>6.96236889003587</v>
       </c>
       <c r="K8" t="n">
-        <v>10.43478615821599</v>
+        <v>10.43478615821618</v>
       </c>
       <c r="L8" t="n">
-        <v>12.94527493617656</v>
+        <v>12.9452749361768</v>
       </c>
       <c r="M8" t="n">
-        <v>14.40411265394175</v>
+        <v>14.40411265394201</v>
       </c>
       <c r="N8" t="n">
-        <v>14.63718625571867</v>
+        <v>14.63718625571894</v>
       </c>
       <c r="O8" t="n">
-        <v>13.82147991953943</v>
+        <v>13.82147991953968</v>
       </c>
       <c r="P8" t="n">
-        <v>11.79631334008751</v>
+        <v>11.79631334008772</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.858540048882572</v>
+        <v>8.858540048882732</v>
       </c>
       <c r="R8" t="n">
-        <v>5.152946638845435</v>
+        <v>5.152946638845529</v>
       </c>
       <c r="S8" t="n">
-        <v>1.869305657894102</v>
+        <v>1.869305657894136</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3590953600628163</v>
+        <v>0.3590953600628228</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006562565118223937</v>
+        <v>0.006562565118224056</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04389102366510271</v>
+        <v>0.0438910236651035</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4238948864498078</v>
+        <v>0.4238948864498155</v>
       </c>
       <c r="I9" t="n">
-        <v>1.511160244609896</v>
+        <v>1.511160244609923</v>
       </c>
       <c r="J9" t="n">
-        <v>4.146739213903411</v>
+        <v>4.146739213903485</v>
       </c>
       <c r="K9" t="n">
-        <v>7.087437799465292</v>
+        <v>7.08743779946542</v>
       </c>
       <c r="L9" t="n">
-        <v>9.529934765530305</v>
+        <v>9.529934765530479</v>
       </c>
       <c r="M9" t="n">
-        <v>11.12098437339028</v>
+        <v>11.12098437339048</v>
       </c>
       <c r="N9" t="n">
-        <v>11.41532373823213</v>
+        <v>11.41532373823234</v>
       </c>
       <c r="O9" t="n">
-        <v>10.44279105596854</v>
+        <v>10.44279105596873</v>
       </c>
       <c r="P9" t="n">
-        <v>8.381260475137026</v>
+        <v>8.381260475137177</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.602650669952409</v>
+        <v>5.602650669952511</v>
       </c>
       <c r="R9" t="n">
-        <v>2.725093557031554</v>
+        <v>2.725093557031603</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8152565141303063</v>
+        <v>0.8152565141303211</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1769116260887253</v>
+        <v>0.1769116260887285</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002887567346388337</v>
+        <v>0.002887567346388389</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03679675984577923</v>
+        <v>0.0367967598457799</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3271566466288374</v>
+        <v>0.3271566466288433</v>
       </c>
       <c r="I10" t="n">
-        <v>1.106578923362161</v>
+        <v>1.106578923362181</v>
       </c>
       <c r="J10" t="n">
-        <v>2.601530921096591</v>
+        <v>2.601530921096638</v>
       </c>
       <c r="K10" t="n">
-        <v>4.27511446208235</v>
+        <v>4.275114462082427</v>
       </c>
       <c r="L10" t="n">
-        <v>5.470674641071578</v>
+        <v>5.470674641071677</v>
       </c>
       <c r="M10" t="n">
-        <v>5.768059363825192</v>
+        <v>5.768059363825296</v>
       </c>
       <c r="N10" t="n">
-        <v>5.63090780440002</v>
+        <v>5.630907804400121</v>
       </c>
       <c r="O10" t="n">
-        <v>5.201054746201597</v>
+        <v>5.201054746201691</v>
       </c>
       <c r="P10" t="n">
-        <v>4.450400845347697</v>
+        <v>4.450400845347778</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.081226863086114</v>
+        <v>3.081226863086169</v>
       </c>
       <c r="R10" t="n">
-        <v>1.654516129065673</v>
+        <v>1.654516129065703</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6412671693123523</v>
+        <v>0.6412671693123639</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1572225193410567</v>
+        <v>0.1572225193410595</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00200709599158796</v>
+        <v>0.002007095991587997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165858</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35899,10 +35899,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>477.6391540161981</v>
       </c>
       <c r="Q17" t="n">
-        <v>372.8898480883753</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597685</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36045,13 +36045,13 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>348.6272892936456</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>373.726863290989</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>269.6641687655372</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36133,13 +36133,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>799.24515934495</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597685</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36285,7 +36285,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>376.5032965169314</v>
+        <v>376.5032965169329</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>376.5636117356652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>760.7707757652512</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36516,10 +36516,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>234.9175766677671</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6272892936472</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>858.1401160802245</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237172</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>706.6580824730634</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,7 +36850,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737854</v>
+        <v>536.3528663562238</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629108</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>864.9615792179303</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>285.9041749619498</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>895.8296941599401</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>372.8898480883758</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629119</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120771</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
